--- a/webscrapping/data.xlsx
+++ b/webscrapping/data.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work2\Projects\Python\webscrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC451F57-8101-4FA1-B7ED-1443529A9536}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68556B28-C97A-4D10-AECA-6EA454E257C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>model_name</t>
   </si>
@@ -34,6 +29,117 @@
   </si>
   <si>
     <t>ratings</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad Slim 3i 10th Gen Intel Core i3 14 inch FHD Thin and Light Laptop (4GB/256GB/Windows 10/MS Office/Grey/1.6Kg), 81WD0044IN</t>
+  </si>
+  <si>
+    <t>₹36,490</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S145 AMD A6-9225 15.6 inch HD Thin and Light Laptop (4GB/1TB/Windows 10/Grey/1.85Kg), 81N30063IN</t>
+  </si>
+  <si>
+    <t>₹23,990</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>HP 15 Athlon Dual Core 15.6 inch Laptop (4 GB/1 TB HDD/Windows 10 Home/Jet Black/1.7 kg/with MS Office) 15-db1066AU</t>
+  </si>
+  <si>
+    <t>₹27,950</t>
+  </si>
+  <si>
+    <t>HP 15q ds0049TU 15.6-inch Laptop (8th Gen i3-8130U/8GB/256GB SSD/Windows 10 Home/Integrated Graphics), Jet Black</t>
+  </si>
+  <si>
+    <t>₹36,811</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Dell Vostro 3581 15.6-inch HD Laptop (7th Gen Core i3-7020U/4GB/1TB HDD/Windows 10 + MS Office/Intel HD Graphics/Black)</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S145 8th Generation Intel Core i3 15.6 inch FHD Thin and Light Laptop (8GB/1 TB HDD/Windows 10/Office 2019/Grey/1.85Kg), 81VD00D3IN</t>
+  </si>
+  <si>
+    <t>₹38,975</t>
+  </si>
+  <si>
+    <t>ASUS VivoBook 15 X509FA-EJ561TS 15.6-inch Laptop (8th Gen Core i5-8265U/8GB/256GB SSD/Windows 10 Home (64bit)/Integrated Graphics), Transparent Silver</t>
+  </si>
+  <si>
+    <t>₹52,465</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S340 10th Generation Intel Core i3 14 inch FHD Thin and Light Laptop (8GB/256 GB/Windows 10/MS Office/Platinum Grey/1.69Kg), 81VV00JFIN</t>
+  </si>
+  <si>
+    <t>₹40,490</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3585 15.6 Inch HD Laptop (AMD Ryzen 5-2500U / 4GB RAM / 1TB HDD / Windows 10 Home + MS Office / Vega 3 Graphics/Silver/2.2 Kg)</t>
+  </si>
+  <si>
+    <t>₹34,990</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad Slim 3i 10th Gen Intel Core i5 15.6 inch FHD Thin and Light Laptop (8GB/1TB/Windows 10/Grey/1.85Kg), 81WE007UIN</t>
+  </si>
+  <si>
+    <t>₹44,990</t>
+  </si>
+  <si>
+    <t>Acer Core i3 8th Gen - (4 GB/1 TB HDD/Windows 10 ) Z2-485 Laptop  (14 inch, Silver) NO DVD</t>
+  </si>
+  <si>
+    <t>₹32,999</t>
+  </si>
+  <si>
+    <t>ASUS VivoBook 14 X409FA-EK341T Intel Core i3 8th Gen 14-inch FHD Compact and Light Laptop (4GB RAM/1TB HDD/Windows 10/Integrated Graphics/FP Reader/1.60 kg), Transparent Silver</t>
+  </si>
+  <si>
+    <t>₹32,331</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>HP 245 7GZ75PA#ACJ 14-inch Laptop (A6-9225/4GB/1TB/DOS/Integrated Graphics), Black</t>
+  </si>
+  <si>
+    <t>(Renewed) Lenovo Thinkpad L460 14-inch Laptop (Core i5 6th Gen/8 GB/256 GB SSD/Windows 10/MS Office Pro 2019/Integrated Graphics), Black</t>
+  </si>
+  <si>
+    <t>₹44,999</t>
+  </si>
+  <si>
+    <t>ASUS VivoBook 15 X509FA-EJ860T 15.6-inch Laptop (8th Gen Core i3-8145U / 4GB RAM / 256 GB SSD / Windows 10 Home (64bit)/Intel Integrated UHD 620 Graphics), Transparent Silver</t>
+  </si>
+  <si>
+    <t>₹33,990</t>
+  </si>
+  <si>
+    <t>HP Pavilion x360 Core i3 10th Gen 14-inch HD Touchscreen 2-in-1 Alexa Enabled Laptop (4GB/256GB SSD/Windows 10/MS Office/Inking Pen/Natural Silver/1.59 kg), 14-dh1006TU</t>
+  </si>
+  <si>
+    <t>₹50,999</t>
+  </si>
+  <si>
+    <t>3.8</t>
   </si>
 </sst>
 </file>
@@ -77,9 +183,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -368,10 +477,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.1796875" customWidth="1"/>
+    <col min="1" max="1" width="116.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -382,8 +491,195 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/webscrapping/data.xlsx
+++ b/webscrapping/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work2\Projects\Python\webscrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68556B28-C97A-4D10-AECA-6EA454E257C0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC021414-2FFE-4C95-A90E-8B83E00D0CFF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>model_name</t>
   </si>
@@ -29,117 +29,6 @@
   </si>
   <si>
     <t>ratings</t>
-  </si>
-  <si>
-    <t>Lenovo Ideapad Slim 3i 10th Gen Intel Core i3 14 inch FHD Thin and Light Laptop (4GB/256GB/Windows 10/MS Office/Grey/1.6Kg), 81WD0044IN</t>
-  </si>
-  <si>
-    <t>₹36,490</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>Lenovo Ideapad S145 AMD A6-9225 15.6 inch HD Thin and Light Laptop (4GB/1TB/Windows 10/Grey/1.85Kg), 81N30063IN</t>
-  </si>
-  <si>
-    <t>₹23,990</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>HP 15 Athlon Dual Core 15.6 inch Laptop (4 GB/1 TB HDD/Windows 10 Home/Jet Black/1.7 kg/with MS Office) 15-db1066AU</t>
-  </si>
-  <si>
-    <t>₹27,950</t>
-  </si>
-  <si>
-    <t>HP 15q ds0049TU 15.6-inch Laptop (8th Gen i3-8130U/8GB/256GB SSD/Windows 10 Home/Integrated Graphics), Jet Black</t>
-  </si>
-  <si>
-    <t>₹36,811</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>Dell Vostro 3581 15.6-inch HD Laptop (7th Gen Core i3-7020U/4GB/1TB HDD/Windows 10 + MS Office/Intel HD Graphics/Black)</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>Lenovo Ideapad S145 8th Generation Intel Core i3 15.6 inch FHD Thin and Light Laptop (8GB/1 TB HDD/Windows 10/Office 2019/Grey/1.85Kg), 81VD00D3IN</t>
-  </si>
-  <si>
-    <t>₹38,975</t>
-  </si>
-  <si>
-    <t>ASUS VivoBook 15 X509FA-EJ561TS 15.6-inch Laptop (8th Gen Core i5-8265U/8GB/256GB SSD/Windows 10 Home (64bit)/Integrated Graphics), Transparent Silver</t>
-  </si>
-  <si>
-    <t>₹52,465</t>
-  </si>
-  <si>
-    <t>Lenovo Ideapad S340 10th Generation Intel Core i3 14 inch FHD Thin and Light Laptop (8GB/256 GB/Windows 10/MS Office/Platinum Grey/1.69Kg), 81VV00JFIN</t>
-  </si>
-  <si>
-    <t>₹40,490</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>Dell Inspiron 3585 15.6 Inch HD Laptop (AMD Ryzen 5-2500U / 4GB RAM / 1TB HDD / Windows 10 Home + MS Office / Vega 3 Graphics/Silver/2.2 Kg)</t>
-  </si>
-  <si>
-    <t>₹34,990</t>
-  </si>
-  <si>
-    <t>Lenovo Ideapad Slim 3i 10th Gen Intel Core i5 15.6 inch FHD Thin and Light Laptop (8GB/1TB/Windows 10/Grey/1.85Kg), 81WE007UIN</t>
-  </si>
-  <si>
-    <t>₹44,990</t>
-  </si>
-  <si>
-    <t>Acer Core i3 8th Gen - (4 GB/1 TB HDD/Windows 10 ) Z2-485 Laptop  (14 inch, Silver) NO DVD</t>
-  </si>
-  <si>
-    <t>₹32,999</t>
-  </si>
-  <si>
-    <t>ASUS VivoBook 14 X409FA-EK341T Intel Core i3 8th Gen 14-inch FHD Compact and Light Laptop (4GB RAM/1TB HDD/Windows 10/Integrated Graphics/FP Reader/1.60 kg), Transparent Silver</t>
-  </si>
-  <si>
-    <t>₹32,331</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>HP 245 7GZ75PA#ACJ 14-inch Laptop (A6-9225/4GB/1TB/DOS/Integrated Graphics), Black</t>
-  </si>
-  <si>
-    <t>(Renewed) Lenovo Thinkpad L460 14-inch Laptop (Core i5 6th Gen/8 GB/256 GB SSD/Windows 10/MS Office Pro 2019/Integrated Graphics), Black</t>
-  </si>
-  <si>
-    <t>₹44,999</t>
-  </si>
-  <si>
-    <t>ASUS VivoBook 15 X509FA-EJ860T 15.6-inch Laptop (8th Gen Core i3-8145U / 4GB RAM / 256 GB SSD / Windows 10 Home (64bit)/Intel Integrated UHD 620 Graphics), Transparent Silver</t>
-  </si>
-  <si>
-    <t>₹33,990</t>
-  </si>
-  <si>
-    <t>HP Pavilion x360 Core i3 10th Gen 14-inch HD Touchscreen 2-in-1 Alexa Enabled Laptop (4GB/256GB SSD/Windows 10/MS Office/Inking Pen/Natural Silver/1.59 kg), 14-dh1006TU</t>
-  </si>
-  <si>
-    <t>₹50,999</t>
-  </si>
-  <si>
-    <t>3.8</t>
   </si>
 </sst>
 </file>
@@ -183,11 +72,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,214 +370,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="116.453125" customWidth="1"/>
+    <col min="2" max="2" width="14" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2"/>
+      <c r="C2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B3"/>
+      <c r="C3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B4"/>
+      <c r="C4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5"/>
+      <c r="C5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B6"/>
+      <c r="C6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
+      <c r="B7"/>
+      <c r="C7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
+      <c r="B8"/>
+      <c r="C8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>13</v>
-      </c>
+      <c r="B9"/>
+      <c r="C9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
+      <c r="B10"/>
+      <c r="C10"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
+      <c r="B11"/>
+      <c r="C11"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
+      <c r="B12"/>
+      <c r="C12"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>13</v>
-      </c>
+      <c r="B13"/>
+      <c r="C13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
+      <c r="B14"/>
+      <c r="C14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
+      <c r="B15"/>
+      <c r="C15"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
+      <c r="B16"/>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17"/>
+      <c r="C17"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18"/>
+      <c r="C18"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19"/>
+      <c r="C19"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20"/>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23"/>
+      <c r="C23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webscrapping/data.xlsx
+++ b/webscrapping/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Work2\Projects\Python\webscrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC021414-2FFE-4C95-A90E-8B83E00D0CFF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AE752F-54E1-491E-9E2A-CC57BC5C9498}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="239">
   <si>
     <t>model_name</t>
   </si>
@@ -29,6 +29,714 @@
   </si>
   <si>
     <t>ratings</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S145 8th Generation Intel Core i3 15.6 inch FHD Thin and Light Laptop (4GB/1TB/Windows 10/Grey/1.85Kg), 81VD0082IN</t>
+  </si>
+  <si>
+    <t>₹37,690</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S340 10th Generation Intel Core i3 14 inch FHD Thin and Light Laptop (8GB/256 GB/Windows 10/MS Office/Platinum Grey/1.69Kg), 81VV00JFIN</t>
+  </si>
+  <si>
+    <t>₹40,490</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S145 AMD A6-9225 15.6 inch HD Thin and Light Laptop (4GB/1TB/Windows 10/Grey/1.85Kg), 81N30063IN</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad Slim 3i 10th Gen Intel Core i3 14 inch FHD Thin and Light Laptop (4GB/256GB/Windows 10/MS Office/Grey/1.6Kg), 81WD0044IN</t>
+  </si>
+  <si>
+    <t>₹36,490</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>HP 15 db1069AU 15.6-inch Laptop (3rd Gen Ryzen 3 3200U/4GB/1TB HDD/Windows 10/MS Office/Radeon Vega 3 Graphics), Jet Black</t>
+  </si>
+  <si>
+    <t>HP 245 7GZ75PA#ACJ 14-inch Laptop (A6-9225/4GB/1TB/DOS/Integrated Graphics), Black</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S145 8th Generation Intel Core i3 15.6 inch FHD Thin and Light Laptop (8GB/1 TB HDD/Windows 10/Office 2019/Grey/1.85Kg), 81VD00D3IN</t>
+  </si>
+  <si>
+    <t>₹38,970</t>
+  </si>
+  <si>
+    <t>(Renewed) Lenovo Thinkpad L460 14-inch Laptop (Core i5 6th Gen/8 GB/256 GB SSD/Windows 10/MS Office Pro 2019/Integrated Graphics), Black</t>
+  </si>
+  <si>
+    <t>₹44,999</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3585 15.6 Inch HD Laptop (AMD Ryzen 5-2500U / 4GB RAM / 1TB HDD / Windows 10 Home + MS Office / Vega 3 Graphics/Silver/2.2 Kg)</t>
+  </si>
+  <si>
+    <t>₹34,990</t>
+  </si>
+  <si>
+    <t>DELL XPS 9380 13.3-inch Laptop (8th Gen Core i7-8565U/16GB/512GB SSD/Windows 10 Home/Intel HD Graphics), Gold</t>
+  </si>
+  <si>
+    <t>₹1,66,913</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 5482 14-inch FHD 2in1 Laptop (8th Gen Core i3-8145U/4GB/512GB SSD/Windows 10 + MS Office/Intel HD Graphics/Platinum Silver)</t>
+  </si>
+  <si>
+    <t>₹49,990</t>
+  </si>
+  <si>
+    <t>HP 15q ds0049TU 15.6-inch Laptop (8th Gen i3-8130U/8GB/256GB SSD/Windows 10 Home/Integrated Graphics), Jet Black</t>
+  </si>
+  <si>
+    <t>₹36,811</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad Slim 3i 10th Gen Intel Core i5 15.6 inch FHD Thin and Light Laptop (8GB/1TB/Windows 10/Grey/1.85Kg), 81WE007UIN</t>
+  </si>
+  <si>
+    <t>₹44,990</t>
+  </si>
+  <si>
+    <t>Dell Vostro 3581 15.6-inch HD Laptop (7th Gen Core i3-7020U/4GB/1TB HDD/Windows 10 + MS Office/Intel HD Graphics/Black)</t>
+  </si>
+  <si>
+    <t>AVITA Cosmos NS14A1IN502P 14-inch Laptop (7th Gen Core i5-7Y54/8GB/256GB SSD/Windows 10/Intel HD 615 Graphics), Cloud Silver</t>
+  </si>
+  <si>
+    <t>₹33,990</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>ASUS VivoBook 14 X409FA-EK341T Intel Core i3 8th Gen 14-inch FHD Compact and Light Laptop (4GB RAM/1TB HDD/Windows 10/Integrated Graphics/FP Reader/1.60 kg), Transparent Silver</t>
+  </si>
+  <si>
+    <t>₹32,331</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>Acer Aspire 3 A315-56 15.6-inch Laptop (Intel Core i5-1035G1/8GB/1TB HDD/Window 10, Home, 64Bit/Intel UHD Graphics), Black</t>
+  </si>
+  <si>
+    <t>₹43,488</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>HP Pavilion x360 Core i3 10th Gen 14-inch HD Touchscreen 2-in-1 Alexa Enabled Laptop (4GB/256GB SSD/Windows 10/MS Office/Inking Pen/Natural Silver/1.59 kg), 14-dh1006TU</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>Dell XPS 9570 15.6-inch FHD Laptop (8th Gen Core i7-8750H/16GB/512 GB SSD/Windows 10 + MS Office/ Nvidia GTX 1050Ti 4GB Graphics/Silver)</t>
+  </si>
+  <si>
+    <t>₹1,55,905</t>
+  </si>
+  <si>
+    <t>DELL XPS 7390 13.3-inch Laptop (10th Gen Core i5-10210U/8GB/512GB SSD/Window 10 + Microsoft Office/Integrated Graphics), White</t>
+  </si>
+  <si>
+    <t>₹1,18,990</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad Slim 3i 10th Gen Intel Core i5 14 inch FHD Thin and Light Laptop (8GB/512GB/Windows 10/MS Office/Grey/1.6Kg), 81WD00AVIN</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S145 Intel Core I5 8th Gen 15.6-inch FHD Thin and Light Laptop ( 8GB RAM / 1TB HDD / Windows 10 Home / Microsoft Office Home and Student 2019/ Black / 1.85 Kg ), 81MV0096IN</t>
+  </si>
+  <si>
+    <t>₹46,990</t>
+  </si>
+  <si>
+    <t>ASUS VivoBook Classic M409DA-EK440TS 14.0-inch Laptop (2nd Gen Ryzen 3 3200U/4GB/256GB SSD/Windows 10 Home 64bit/Integrated Graphics), Transparent Silver</t>
+  </si>
+  <si>
+    <t>₹31,490</t>
+  </si>
+  <si>
+    <t>HP Notebook PC 348 G7 14-inch Laptop (10th Gen Core i3-10110U/8GB/1TB HDD/Windows 10 Pro/Intel UHD 620 Graphics), Silver</t>
+  </si>
+  <si>
+    <t>₹61,442</t>
+  </si>
+  <si>
+    <t>Acer Core i3 8th Gen - (4 GB/1 TB HDD/Windows 10 ) Z2-485 Laptop  (14 inch, Silver) NO DVD</t>
+  </si>
+  <si>
+    <t>₹32,999</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 7380 13.3-inch FHD Thin &amp; Light Laptop (Core i5 8th Gen/8GB/512GB SSD/Windows 10 + MS Office/Integrated Graphics/Silver)</t>
+  </si>
+  <si>
+    <t>₹63,990</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkBook 14 Intel Core i3 10th Gen 14-inch Full HD Thin and Light Laptop (4GB RAM/ 1TB HDD/ Windows 10 Pro/ Mineral Gray/ 1.49 kg), 20SL005TIH</t>
+  </si>
+  <si>
+    <t>₹47,790</t>
+  </si>
+  <si>
+    <t>HP Pavilion x360 Core i7 8th Gen 14-inch Touchscreen 2-in-1 FHD Thin and Light Laptop (16GB/512GB SSD/Windows 10/MS Office/2GB Graphics/Mineral Silver/1.59 kg), 14- dh0045TX</t>
+  </si>
+  <si>
+    <t>₹89,990</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>HP 15 db1059au  15.6-inch Laptop (Ryzen 3 3200U/4GB/1TB HDD/Win 10/MS Office 2019/AMD Radeon Vega 3 Graphics), Natural Silver</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>HP 15s db1061au 15.6-inch Laptop (Ryzen 5 3500U/4GB/1TB HDD/Windows 10 Home/AMD Radeon Vega 8 Graphics), Natural Silver</t>
+  </si>
+  <si>
+    <t>₹39,852</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 5593 15.6-inch Laptop (10th Gen Core i5-1035G1/8GB/512GB SSD/Windows 10 Home Plus + MS Office/2GB NVIDIA MX230 GDDR5 Graphics), Platinum Silver</t>
+  </si>
+  <si>
+    <t>₹71,980</t>
+  </si>
+  <si>
+    <t>Acer Nitro 5 AN515-54 15.6-inch Laptop (9th Gen Intel Core i7-9750H processor/8GB/2TB+256GB SSD/Windows 10 Home 64-bit/NVIDIA GeForce GTX 1660ti with 6 GB of Dedicated GDDR5 VRAM Graphics),</t>
+  </si>
+  <si>
+    <t>₹94,990</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3584 15.6-inch FHD Laptop (7th Gen Core i3-7020U/4GB/1TB HDD/Windows 10 + MS Office/Intel HD Graphics/Silver)</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>DELL Inspiron 3593 15.6-inch FHD Laptop (10th Gen i3-1005G1/4GB/1TB/Win 10 + MS Office/Intel HD Graphics), Platinum Silver</t>
+  </si>
+  <si>
+    <t>₹41,500</t>
+  </si>
+  <si>
+    <t>HP Pavilion Gaming 15-ec0044AX 15.6-inch Laptop (Ryzen 7 3750H/8GB/1TB HDD + 512GB SSD/Windows 10, Home/4 GB Graphics), Shadow Black</t>
+  </si>
+  <si>
+    <t>₹73,292</t>
+  </si>
+  <si>
+    <t>DELL Inspiron 5390 13.3-inch FHD Laptop (8th Gen Core i5-8265U/8GB/512GB SSD/Windows 10 + MS Office/Intel HD Graphics), Silver</t>
+  </si>
+  <si>
+    <t>₹62,999</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad E14 Intel Core i5 10th Gen 14-inch Full HD Thin and Light Laptop (8GB RAM/ 1TB HDD + 128GB SSD/ Windows 10 Home/ Microsoft Office Home &amp; Student 2019/ Black/ 1.77 kg), 20RAS0KY00</t>
+  </si>
+  <si>
+    <t>₹59,990</t>
+  </si>
+  <si>
+    <t>HP 14 10th Gen Intel Core i5 Processor 14-inch FHD Laptop (i5-10210U/8GB/1TB HDD + 256GB SSD/Win10 Home/MS Office/2GB Graphics/Natural Silver/1.47 kg), 14s cr2000TX</t>
+  </si>
+  <si>
+    <t>₹64,890</t>
+  </si>
+  <si>
+    <t>Wacom MobileStudio Pro 13, DTH-W1321H/K0-CX, Intel® Core™ i7-85596U, 512GB SSD - Black</t>
+  </si>
+  <si>
+    <t>₹2,34,999</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 7580 Core i5 8th Gen 15.6-inch FHD Laptop (8GB/1TB + 128GB SSD/Windows 10 + MS Office/2GB Graphics/Silver)</t>
+  </si>
+  <si>
+    <t>₹71,890</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad T490 Intel Core i7 8th Gen 14-inch Full HD Laptop (8GB RAM/ 512GB SSD/ Windows 10 Pro/ Black/ 1.55 kg), 20N2S1GP00</t>
+  </si>
+  <si>
+    <t>₹1,27,690</t>
+  </si>
+  <si>
+    <t>HP Pavilion x360 Core i3 10th Gen 14-inch FHD Touchscreen 2-in-1 Alexa Enabled Laptop (4GB/256GB SSD/Windows 10/MS Office/Inking Pen/Natural Silver/1.59 kg), 14-dh1007TU</t>
+  </si>
+  <si>
+    <t>₹50,990</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3593 15.6-inch FHD Laptop (10th Gen Core i3-1005G1/8GB/1TB HDD/Windows 10 Home + MS Office/Intel HD Graphics), Platinum Silver</t>
+  </si>
+  <si>
+    <t>ASUS ZenBook UX430UA-GV573T Intel Core i5 8th Gen 14-inch FHD Thin and Light Laptop (8GB RAM/256GB SSD/Windows 10/Integrated Graphics/1.30 kg), Gold</t>
+  </si>
+  <si>
+    <t>₹45,990</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>ASUS VivoBook 15 X512FA Intel Core i3 8th Gen 15.6-inch FHD Thin and Light Laptop (4GB RAM/256GB SSD/Windows 10/Integrated Graphics/Transparent Silver/1.70 kg), X512FA-EJ549T</t>
+  </si>
+  <si>
+    <t>₹38,595</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad C340 AMD Ryzen 5 3500U 2 in 1 Convertible 14 inch FHD Laptop (8GB/1TB SSD/Windows 10/MS Office/Platinum Grey/1.65Kg), 81N6006PIN</t>
+  </si>
+  <si>
+    <t>₹58,990</t>
+  </si>
+  <si>
+    <t>Lenovo V330 AMD Ryzen 3 2200U 2.5GHZ 14 inch 4Gb RAM 1TB HDD DOS</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Optiplex 7010 Business Grade Core I5 Quad Core 3.6 Ghz/ 8 GB/ 500 GB HDD/USB 3.0/2.0/LAN/VGA/DVDR/W/Win 10 Pro</t>
+  </si>
+  <si>
+    <t>₹16,999</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>Apple MacBook Air (13-inch, 8GB RAM, 128GB Storage, 1.8GHz Intel Core i5) - Silver</t>
+  </si>
+  <si>
+    <t>₹71,990</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad E14 Intel Core i3 10th Gen 14-inch Full HD Thin and Light Laptop (4GB RAM/ 1TB HDD/ Windows 10 Home/ Black/ 1.77 kg), 20RAS0SG00</t>
+  </si>
+  <si>
+    <t>₹38,990</t>
+  </si>
+  <si>
+    <t>Lenovo V15 Intel Core i3 8th Gen 15-inch HD Thin and Light Laptop (4GB RAM/ 1TB HDD/ DOS/ Grey/ 1.85 kg), 81YD001KIH</t>
+  </si>
+  <si>
+    <t>₹34,740</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>ASUS X543 X543UA-DM302T 15.6-inch Laptop (6th Gen Intel Core i3-6006U Processor/4GB/1TB HDD/Window 10 64Bit/Integrated Graphics), Star Grey</t>
+  </si>
+  <si>
+    <t>HP Pavilion Gaming 15-ec0026AX 15.6-inch Gaming Laptop (Ryzen 5 3550H/8GB/1TB HDD + 256GB SSD/Windows 10 Home/3GB NVIDIA GTX 1050 Graphics), Shadow Black</t>
+  </si>
+  <si>
+    <t>HP Pavilion Gaming 9th Gen Intel Core i5 Processor 15.6 inch FHD Laptop (8GB/1TB HDD/ Win 10/GTX 1050 4GB/Backlit Keyboard/2.2kg), 15-dk0261TX (Shadow Black)</t>
+  </si>
+  <si>
+    <t>₹64,490</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad E14 Intel Core i5 10th Gen 14-inch Full HD Laptop (4GB RAM/ 500GB HDD/ Dos/ Black/ 1.77 kg), 20RAS0XB00</t>
+  </si>
+  <si>
+    <t>₹52,990</t>
+  </si>
+  <si>
+    <t>HP Pavilion Gaming 9th Gen Intel Core i5 Processor 15.6-inch FHD Gaming Laptop (8GB/1TB HDD/Windows 10/NVIDIA GTX 1050 4GB Graphics/Shadow Black/2.17 kg), 15-bc504TX</t>
+  </si>
+  <si>
+    <t>₹62,990</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>Dell Gaming-G3 3590 15.6-inch FHD Laptop (9th Gen Core i7-9750H/8GB/1TB HDD + 512GB SSD/Windows 10 + MS Office/4GB NVIDIA 1650 Graphics/Black)</t>
+  </si>
+  <si>
+    <t>₹93,288</t>
+  </si>
+  <si>
+    <t>Searching</t>
+  </si>
+  <si>
+    <t>ASUS X509FA-EJ341TS Intel i3-8145U / 4G / 1TB HDD / Transparent Silver/ 15.6"FHD/ Win 10 SL + Microsoft Office H&amp;S / 1Yr International Warranty / Finger Print Scanner</t>
+  </si>
+  <si>
+    <t>₹35,999</t>
+  </si>
+  <si>
+    <t>ASUS VivoBook 15 X512DA-EJ502T AMD Quad Core Ryzen 5-3500U 15.6-inch FHD Thin and Light Laptop (8GB RAM/512GB NVMe SSD/Windows 10/Integrated Graphics/FP Reader/Backlit KB/1.60 Kg), Slate Gray</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>ASUS VivoBook 15 M509DA-EJ542T AMD Quad Core Ryzen 5-3500U 15.6-inch FHD Compact and Light Laptop (4GB RAM/1TB HDD/Windows 10/Integrated Graphics/FP Reader/1.9 kg), Slate Gray</t>
+  </si>
+  <si>
+    <t>₹37,890</t>
+  </si>
+  <si>
+    <t>Lenovo Yoga C740 Intel Core i7 10th Generation 14 inch FHD 2 in 1 Convertible Laptop (16GB/512GB SSD/Windows 10/MS Office/Grey/1.4Kg), 81TC00B2IN</t>
+  </si>
+  <si>
+    <t>₹94,505</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>ASUS VivoBook 15 X512FA-EJ371T Intel Core i3 10th Gen 15.6-inch FHD Thin and Light Laptop (4GB RAM/512GB NVMe SSD/Windows 10/Integrated Graphics/Backlit KB/FP Reader/1.70 Kg), Transparent Silver</t>
+  </si>
+  <si>
+    <t>Acer Nitro 5 AN517-51 17-inch FHD IPS Display Gaming Notebook (9th Gen Intel Core i5-9300H processor/8GB/1TB HDD + 256GB SSD/Windows 10 Home 64 bit/GTX 1650 Graphics), Obsidian Black</t>
+  </si>
+  <si>
+    <t>₹69,990</t>
+  </si>
+  <si>
+    <t>ASUS ROG Zephyrus G GA502DU-AL025T 15.6" FHD 120Hz Thin Gaming Laptop GTX 1660 Ti Max-Q 6GB Graphics (AMD Ryzen 7 3750H/16GB RAM/512GB NVMe SSD/Windows 10/Backlit KB/2.19 Kg), Black</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>ASUS VivoBook 15 M509DA-EJ561T AMD Quad Core Ryzen 5-3500U 15.6-inch FHD Compact and Light Laptop (4GB RAM/256GB NVMe SSD/Windows 10/Integrated Graphics/FP Reader/1.9 kg), Transparent Silver</t>
+  </si>
+  <si>
+    <t>₹37,330</t>
+  </si>
+  <si>
+    <t>DELL XPS 9370 13.3-inch UHD Thin &amp; Light Laptop(8th Gen i7-8550U/16GB/512GB SSD/Win 10 + MS Office/Integrated Graphics), Gold</t>
+  </si>
+  <si>
+    <t>₹1,93,337</t>
+  </si>
+  <si>
+    <t>Lenovo V15 Intel Core i5 10th Gen 15-inch HD Thin and Light Laptop (4GB RAM/ 1TB HDD/ DOS/ Grey/ 1.85 kg), 82C500L9IH</t>
+  </si>
+  <si>
+    <t>₹41,990</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>ASUS VivoBook 15 X512FA Intel Core i3 8th Gen 15.6-inch FHD Thin and Light Laptop (4GB RAM/256GB SSD/Windows 10/Integrated Graphics/Slate Gray/1.70 kg), X512FA-EJ550T</t>
+  </si>
+  <si>
+    <t>₹37,480</t>
+  </si>
+  <si>
+    <t>Lenovo Legion Y540 Intel Core i5 9th Gen 15.6 inch FHD Gaming Laptop (8GB/1TB + 256 GB SSD/Windows 10/4GB GTX 1650 Graphics/Black/2.3Kg), 81SY00SNIN</t>
+  </si>
+  <si>
+    <t>₹65,490</t>
+  </si>
+  <si>
+    <t>HP 15 AMD Ryzen 7 15.6-inch FHD Laptop (Ryzen 7-3700U/8GB/512GB SSD/Windows 10 Home/MS Office/Vega 10 Graphics/Natural Silver/1.77 kg), 15s eq0132AU</t>
+  </si>
+  <si>
+    <t>₹57,990</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkBook 20RV00DSIH 2019 14-inch Laptop (10th Gen Core i5 10210U/8GB/1TB HDD/Windows 10 Professional/Intel UHD Graphics), Mineral Gray</t>
+  </si>
+  <si>
+    <t>₹65,190</t>
+  </si>
+  <si>
+    <t>HP 14  Laptop (Ryzen 5 3500U/8GB/1TB HDD + 256GB SSD/Win 10/Microsoft Office 2019/Radeon Vega 8 Graphics), DK0093AU</t>
+  </si>
+  <si>
+    <t>₹49,190</t>
+  </si>
+  <si>
+    <t>HP Pavilion Gaming 9th Gen Intel Core i7 Processor 15.6 inch FHD Laptop (8GB/1TB HDD + 256GB SSD/144Hz Refresh Rate/Win 10/MS Office 2019/GTX 1650 4GB/Backlit Keyboard/2.2kg), 15-dk0050TX</t>
+  </si>
+  <si>
+    <t>HP Pavilion 14 Core i5 10th Gen Alexa Built-in 14-inch FHD Laptop (8GB/512 GB SSD/Win 10/MS Office/Mineral Silver/1.6kg), 14-ce3006TU</t>
+  </si>
+  <si>
+    <t>ASUS VivoBook S14 S431FA-EB511T Intel Core i5 8th Gen 14-inch FHD Thin &amp; Light Laptop (8GB RAM/512GB PCIe SSD/Windows 10/Integrated Graphics/1.4 Kg), Transparent Silver</t>
+  </si>
+  <si>
+    <t>HP Pavilion 14 14-ce3022TX 2019 14-inch Laptop (10th Gen Core i5-1035G1/8GB/1TB HDD + 256GB SSD/Windows 10, Home/2GB Graphics), Mineral Silver</t>
+  </si>
+  <si>
+    <t>₹75,999</t>
+  </si>
+  <si>
+    <t>ASUS TUF Gaming FX705DT-AU092T 17.3" FHD Laptop GTX 1650 4GB Graphics (Ryzen 5-3550H/8GB RAM/512GB NVMe SSD/Windows 10/2.70 kg), Stealth Black</t>
+  </si>
+  <si>
+    <t>₹55,990</t>
+  </si>
+  <si>
+    <t>Microsoft Surface Laptop 3 Intel Core™ i5 10th Gen 13.5 inch Touchscreen Laptop (8GB/128GB SSD/Windows 10 Home/Integrated Graphics/Platinum/1.265kg), VGY-00021</t>
+  </si>
+  <si>
+    <t>₹96,657</t>
+  </si>
+  <si>
+    <t>HP Pavilion x360 Core i5 10th Gen 14-inch FHD Touchscreen 2-in-1 Alexa Enabled Laptop (8GB/1TB HDD + 256GB SSD/2GB Graphics/Windows 10/MS Office/Inking Pen/FPR/Mineral Silver/1.59 kg), 14-dh1025TX</t>
+  </si>
+  <si>
+    <t>₹83,870</t>
+  </si>
+  <si>
+    <t>DELL XPS 9300 13.3-inch FHD Laptop (10th Gen Core i5-1035G1/8GB/512GB SSD/Windows 10 Home Plus &amp; MS Office 365- 1Yr Subscription/Intel HD Graphics), Silver</t>
+  </si>
+  <si>
+    <t>₹1,44,990</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S145 81W800E9IN 15.6-inch FHD Thin and Light Laptop (10th Gen i5-1035G1/8GB/512GB SSD/Windows 10/Microsoft Office 2019/Integrated Graphics), Grey</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad E14 Intel Core i7 10th Gen 14-inch Full HD Thin and Light Laptop (16GB RAM/ 512GB SSD/ Windows 10 Home/ Microsoft Office Home &amp; Student 2019/ Black/ 1.77 kg), 20RAS0MA00</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude 7350 Laptop (Core M 5th Gen/8GB/128GB SSD/WEBCAM/13.3'' Touch/DOS)(2-in-1 Convertible)</t>
+  </si>
+  <si>
+    <t>₹38,940</t>
+  </si>
+  <si>
+    <t>Lenovo Legion Y540 Intel Core i7 9th Gen 15.6 inch FHD Gaming Laptop (8GB/1TB HDD + 256 GB SSD/Windows 10/4GB NVIDIA GTX 1650/Black/2.3Kg), 81SY00SUIN</t>
+  </si>
+  <si>
+    <t>₹78,990</t>
+  </si>
+  <si>
+    <t>HP 245 G7 R5-2500U 14 inch Laptop (4GB RAM/1TB HDD/DOS/AMD Radeon Vega Graphics/NO ODD) 2R941PA (1.90kg,Black)</t>
+  </si>
+  <si>
+    <t>₹32,990</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S340 Intel Core i5 10th Generation 14 inch FHD Thin and Light Laptop (8GB/1TB HDD + 256 GB SSD/Windows 10/MS Office/Platinum Grey/1.55Kg), 81VV008TIN</t>
+  </si>
+  <si>
+    <t>₹59,750</t>
+  </si>
+  <si>
+    <t>HP 14s dr1006TU 14-inch Laptop (10th Gen Core i7-1065G7/8GB/512GB SSD/Windows 10 Home/Intel Iris Graphics), Natural Silver</t>
+  </si>
+  <si>
+    <t>Lenovo Legion Y540 9th Gen Intel core i5 15.6 inch FHD Gaming Laptop(8GB/1TB SSD/Windows 10/MS Office/4GB NVIDIA GTX1650 Graphics/Black/2.3Kg), 81SY00C7IN</t>
+  </si>
+  <si>
+    <t>₹74,990</t>
+  </si>
+  <si>
+    <t>HP 15 di0001TU 15.6-inch Laptop (Pentium Gold 4417U/4GB/1TB/Windows 10, Home/Integrated Graphics), Jet Black</t>
+  </si>
+  <si>
+    <t>ASUS VivoBook S15 S531FL-BQ703T - Intel Core i7 8565U 8th Gen 15.6-inch FHD Thin &amp; Light Laptop (8GB RAM/512GB PCIe SSD/Windows 10/2GB NVIDIA NVIDIA GeForce MX 250 Graphics/1.8 Kg), Moss Green</t>
+  </si>
+  <si>
+    <t>₹73,990</t>
+  </si>
+  <si>
+    <t>(Renewed) HP Elitebook FOLIO 9480M (CORE I5 4TH GEN/4GB/128GB SSD/WEBCAM/14''/DOS) (Silver)</t>
+  </si>
+  <si>
+    <t>₹27,295</t>
+  </si>
+  <si>
+    <t>ASUS VivoBook 15 X510UN-EJ329T Intel Core i7 8th Gen 15.6-inch FHD Thin and Light Laptop (8GB RAM/1TB HDD/Windows 10/2GB NVIDIA GeForce MX150 Graphics/FP Reader/Backlit KB/1.7 Kg), Grey</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkPad E14 Intel Core i3 10th Gen 14-inch Full HD Thin and Light Laptop (4GB RAM/ 256GB SSD/ Windows 10 Home/ Microsoft Office Home &amp; Student 2019/ Black/ 1.77 kg), 20RAS0WH00</t>
+  </si>
+  <si>
+    <t>₹39,990</t>
+  </si>
+  <si>
+    <t>Asus X441UA-GA598 Core I3 8th Gen Commercial Laptop</t>
+  </si>
+  <si>
+    <t>₹39,777</t>
+  </si>
+  <si>
+    <t>Apple MacBook Pro (16-inch, 16GB RAM, 512GB Storage, 2.6GHz 9th Gen Intel Core i7) - Space Grey</t>
+  </si>
+  <si>
+    <t>₹1,99,900</t>
+  </si>
+  <si>
+    <t>Acer Aspire 3 Ryzen 3 15.6-inch Laptop (4GB/1TB/Windows 10/Obsidian Black/2.3kg), A315-42</t>
+  </si>
+  <si>
+    <t>₹28,990</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad C340 Intel Core i5 10th Gen 14 inch FHD 2 in 1 Convertible Laptop (8GB/512GB SSD/Window/Office/Gray/1.6Kg), 81TK00GTIN</t>
+  </si>
+  <si>
+    <t>₹70,056</t>
+  </si>
+  <si>
+    <t>ASUS VivoBook D1401DA-EK163 AMD Dual Core Ryzen 3-3200U 14-inch FHD Thin and Light Laptop (4GB RAM/1TB HDD/Endless OS/Integrated Graphics/1.60 kg), Transparent Silver</t>
+  </si>
+  <si>
+    <t>₹35,777</t>
+  </si>
+  <si>
+    <t>Asus VivoBook 15 Core i5 -1035 Gen - (8 GB/512 GB SSD/Windows 10 ) X509JA-EJ592T Laptop (15.6 inch, Slate Grey, 1.9 kg)</t>
+  </si>
+  <si>
+    <t>₹48,990</t>
+  </si>
+  <si>
+    <t>Microsoft Surface Go MHN-00015 10 inch Touchscreen 2-in-1 Laptop (Intel Pentium Gold Processor/8GB/128GB SSD/Windows 10 Home in S Mode/Intel HD Graphics 615), Platinum</t>
+  </si>
+  <si>
+    <t>₹54,499</t>
+  </si>
+  <si>
+    <t>HP Pavilion x360 Core i5 10th Gen 14-inch FHD Touchscreen 2-in-1 Alexa Enabled Laptop (8GB/256GB SSD+1TB HDD/Windows 10/MS Office/Inking Pen/FPR/Natural Silver/1.59 kg), 14-dh1011TU</t>
+  </si>
+  <si>
+    <t>₹83,990</t>
+  </si>
+  <si>
+    <t>TUMTUM Kids Fun English Learner Educational Laptop for 20 Fun Activities Enhanced Skills of Children Premium Quality Kids Educational Purpose for Boy &amp; Girls Best English Learner Laptop</t>
+  </si>
+  <si>
+    <t>₹1,049</t>
+  </si>
+  <si>
+    <t>(Renewed) HP ZBook 14 Laptop (Core i5 4th Gen/4GB/500GB/1GB GRAPHICS/WEBCAM/14''/DOS)</t>
+  </si>
+  <si>
+    <t>₹39,195</t>
+  </si>
+  <si>
+    <t>MSI Alpha 15 A3DDK-043IN AMD Ryzen 7-3750H 15.6-inch Laptop(16GB/512GB NVMe SSD/Windows 10 Home/RX5500M, 4GB Graphics/Black/2.2Kg )9S7-16U622-043</t>
+  </si>
+  <si>
+    <t>₹87,446</t>
+  </si>
+  <si>
+    <t>MSI GP65 Leopard 9SD-459IN Intel Core i7-9750H  9th Gen 15.6-inch Laptop(16GB/256GB NVMe M.2 SSD + 1TB HDD/Windows 10 Home/Nvidia GTX 1660 ti, 6GB Graphics/Grey/2.3Kg ) 9S7-16U121-459</t>
+  </si>
+  <si>
+    <t>₹1,04,990</t>
+  </si>
+  <si>
+    <t>ASUS VivoBook S15 S531FL-BQ701T - Intel Core i7 8565U 8th Gen 15.6-inch FHD Thin &amp; Light Laptop (8GB RAM/512GB PCIe SSD/Windows 10/2GB NVIDIA NVIDIA GeForce MX 250 Graphics/1.8 Kg), Transparent Silver</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3584 15.6-inch FHD Laptop--Intel Core i3 7th Gen || 8 GB || 1TB HDD|| Windows 10 Home with MS Office 2019 || Silver || 1 Year Dell On SIte Warranty</t>
+  </si>
+  <si>
+    <t>ASUS VivoBook 15 X512FA-EJ373T Intel Core i3 10th Gen 15.6-inch FHD Thin and Light Laptop (4GB RAM/512GB NVMe SSD/Windows 10/Integrated Graphics/Backlit KB/FP Reader/1.70 Kg), Peacock Blue</t>
+  </si>
+  <si>
+    <t>₹40,115</t>
+  </si>
+  <si>
+    <t>HP Spectre x360 Core i5 10th Gen 13-inch FHD Touchscreen Laptop (8GB/512 GB SSD/Windows 10/MS Office 2019/Nightfall Black/1.27 kg), 13-aw0204TU</t>
+  </si>
+  <si>
+    <t>₹1,04,999</t>
+  </si>
+  <si>
+    <t>Lenovo V14 Intel Core i3 8th Gen 14-inch HD Thin and Light Laptop (4GB RAM/ 1TB HDD/ DOS/ Grey/ 1.6 kg), 81YA002DIH</t>
+  </si>
+  <si>
+    <t>₹30,789</t>
+  </si>
+  <si>
+    <t>Lenovo Ideapad S145 7th Generation Intel Core i3 15.6 inch FHD Thin and Light Laptop (4GB/1TB/Windows 10/Office 2019/Grey/1.85Kg), 81VD007AIN</t>
+  </si>
+  <si>
+    <t>₹38,999</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>Acer Nitro 5 AN515-54 15.6-inch Laptop (9th Gen Intel Core i5-9300H processor/8GB/1TB+256GB SSD/Windows 10 Home 64-bit/NVIDIA GeForce GTX 1650 with 4 GB of Dedicated GDDR5 VRAM Graphics), Black</t>
+  </si>
+  <si>
+    <t>₹64,990</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell INS 5482 (CORE i7-8550U/8GB/256GBSSD/W10/14"TOUCH)</t>
+  </si>
+  <si>
+    <t>₹61,110</t>
+  </si>
+  <si>
+    <t>Dell New Latitude 3000 Series 14"---Core i3 8th Gen || 4 GB || 1 TB || DOS-Ubantu || 1 Year ADP+NBD Dell Warranty || 14 " Screen Size</t>
+  </si>
+  <si>
+    <t>₹35,200</t>
+  </si>
+  <si>
+    <t>ASUS VivoBook 15 X512FA-EJ374T Intel Core i3 10th Gen 15.6-inch FHD Thin and Light Laptop (4GB RAM/512GB NVMe SSD/Windows 10/Integrated Graphics/Backlit KB/FP Reader/1.70 Kg), Coral Crush</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 5482 14-inch FHD 2in1 Laptop (8th Gen Core i5/8GB/512GB SSD/Windows 10 + MS Office/2GB Nvidia MX130 Graphics/Silver) Stylus Pen</t>
+  </si>
+  <si>
+    <t>₹71,573</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Acer Nitro 7 AN715-51 15.6" Full HD IPS Thin and Light Gaming Notebook(Intel Core i5-9300H processor/8GB Ram/1TB HDD + 256GB SSD/Windows 10 Home 64 bit/6GB of 1660Ti Graphics), Obsidian Black</t>
+  </si>
+  <si>
+    <t>₹84,990</t>
   </si>
 </sst>
 </file>
@@ -370,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C23"/>
+      <selection activeCell="A123" sqref="A123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -395,93 +1103,1390 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2"/>
-      <c r="C2"/>
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B3"/>
-      <c r="C3"/>
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B4"/>
-      <c r="C4"/>
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5"/>
-      <c r="C5"/>
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B6"/>
-      <c r="C6"/>
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B7"/>
-      <c r="C7"/>
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B8"/>
-      <c r="C8"/>
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B9"/>
-      <c r="C9"/>
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B10"/>
-      <c r="C10"/>
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B11"/>
-      <c r="C11"/>
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B12"/>
-      <c r="C12"/>
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B13"/>
-      <c r="C13"/>
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B14"/>
-      <c r="C14"/>
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B15"/>
-      <c r="C15"/>
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B16"/>
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17"/>
-      <c r="C17"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B18"/>
-      <c r="C18"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B19"/>
-      <c r="C19"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20"/>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B22"/>
-      <c r="C22"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B23"/>
-      <c r="C23"/>
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>95</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>104</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>159</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>171</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>172</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>173</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>177</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>182</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>184</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>185</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>187</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>189</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>190</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>192</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>194</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>196</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>198</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>71</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>200</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>202</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>204</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>206</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>208</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>210</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>212</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>214</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>216</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>217</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>218</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>220</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>222</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>224</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>227</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>229</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>231</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>233</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>234</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>237</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
